--- a/模版/客户规格套装数判断.xlsx
+++ b/模版/客户规格套装数判断.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbo/Documents/工作/星图/资料1/客户数据库QC程序及文件/模版/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\交付报告\202209\2、报告异常值\检查程序\模版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28E0E34-8DFD-F040-8098-D66331A23B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C518FA-0642-4D03-898B-3FE705937CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据库及字段名" sheetId="7" r:id="rId1"/>
@@ -560,7 +560,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,25 +941,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED22997-0E94-4302-A621-59B27B8C94D1}">
   <dimension ref="B1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A3:XFD35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="18.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18">
+    <row r="1" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -988,7 +986,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +1015,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,7 +1044,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1073,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1104,7 +1102,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1131,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1162,7 +1160,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
@@ -1191,7 +1189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>65</v>
       </c>
@@ -1220,7 +1218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
@@ -1249,7 +1247,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>65</v>
       </c>
@@ -1278,7 +1276,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
@@ -1307,7 +1305,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1336,7 +1334,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1365,7 +1363,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>74</v>
       </c>
@@ -1394,7 +1392,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>75</v>
       </c>
@@ -1423,7 +1421,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>76</v>
       </c>
@@ -1452,7 +1450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
@@ -1481,7 +1479,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>65</v>
       </c>
@@ -1510,7 +1508,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>80</v>
       </c>
@@ -1539,7 +1537,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1568,7 +1566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
@@ -1597,7 +1595,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>84</v>
       </c>
@@ -1626,7 +1624,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>86</v>
       </c>
@@ -1655,7 +1653,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1684,7 +1682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>65</v>
       </c>
@@ -1713,7 +1711,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1742,7 +1740,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
@@ -1771,7 +1769,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
@@ -1800,7 +1798,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
@@ -1829,7 +1827,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
@@ -1858,7 +1856,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>96</v>
       </c>
@@ -1887,7 +1885,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1916,7 +1914,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>86</v>
       </c>
@@ -1945,7 +1943,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
@@ -1974,7 +1972,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="2:10" s="4" customFormat="1">
+    <row r="36" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>65</v>
       </c>
@@ -2003,7 +2001,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
@@ -2032,7 +2030,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>65</v>
       </c>
@@ -2061,7 +2059,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
@@ -2090,7 +2088,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>86</v>
       </c>
@@ -2119,7 +2117,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>6</v>
       </c>
@@ -2148,7 +2146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
@@ -2177,7 +2175,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
@@ -2206,7 +2204,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>114</v>
       </c>
@@ -2235,7 +2233,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>76</v>
       </c>
@@ -2264,7 +2262,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>74</v>
       </c>
@@ -2293,7 +2291,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>120</v>
       </c>
@@ -2322,7 +2320,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>121</v>
       </c>
@@ -2351,7 +2349,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:10" s="4" customFormat="1">
+    <row r="49" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>131</v>
       </c>
@@ -2395,9 +2393,9 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:10" s="1" customFormat="1" ht="17">
+    <row r="3" spans="2:10" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
